--- a/Outputs/PtX_demand_HU.xlsx
+++ b/Outputs/PtX_demand_HU.xlsx
@@ -493,53 +493,55 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>2030</v>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>0.0007290507609989409</v>
+      </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>0.0005019750136645909</v>
+      </c>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>6.093470415604716e-10</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0002030058999299604</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2030</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.0007290507609989409</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>0.0001414189011166906</v>
+      </c>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>0.0005019750136645909</v>
-      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
-        <v>6.093470415604716e-10</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0002030058999299604</v>
-      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -547,7 +549,7 @@
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>0.0001414189011166906</v>
+        <v>0.008878883495493777</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
@@ -560,16 +562,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>2030</v>
       </c>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="n">
-        <v>0.008878883495493777</v>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -581,7 +581,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -589,18 +589,24 @@
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>0.0006456721905622116</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.000193545431870701</v>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>4.077730721316057e-05</v>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -608,24 +614,18 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>0.0006456721905622116</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.000193545431870701</v>
-      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="n">
-        <v>4.077730721316057e-05</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -634,17 +634,27 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>0.009632717318715784</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0001257284793922</v>
+      </c>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>0.0073935090736912</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0002385212398292</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.0001771740192985</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -652,28 +662,20 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>0.009632717318715784</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.0001257284793922</v>
-      </c>
+      <c r="E9" t="n">
+        <v>0.003434581101590596</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="n">
-        <v>0.0073935090736912</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.0002385212398292</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.0001771740192985</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -682,7 +684,7 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.003434581101590596</v>
+        <v>0.0004973832273440516</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -694,74 +696,92 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>2030</v>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>0.0007290507609989409</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.009020302396610468</v>
+      </c>
       <c r="E11" t="n">
-        <v>0.0004973832273440516</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>0.004577636519496858</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.01032823776425107</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0001257284793922</v>
+      </c>
+      <c r="H11" t="n">
+        <v>6.093470415604716e-10</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.007637292280834321</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0002385212398292</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.0001771740192985</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>2040</v>
       </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="n">
+        <v>0.002630326271282433</v>
+      </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>0.002386852330165</v>
+      </c>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>5.100907766404254e-08</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.0003018822379743</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>2040</v>
       </c>
-      <c r="C13" t="n">
-        <v>0.002630326271282433</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>0.000164012091898209</v>
+      </c>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
-        <v>0.002386852330165</v>
-      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
-        <v>5.100907766404254e-08</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.0003018822379743</v>
-      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -769,7 +789,7 @@
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>0.000164012091898209</v>
+        <v>0.01029738064938582</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
@@ -782,28 +802,30 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>2040</v>
       </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="n">
-        <v>0.01029738064938582</v>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>9.158070027155819e-10</v>
+      </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>9.655214334369443e-11</v>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -811,14 +833,16 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>0.002490379509654358</v>
+      </c>
       <c r="F16" t="n">
-        <v>9.158070027155819e-10</v>
+        <v>0.0002275402508239</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>9.655214334369443e-11</v>
+        <v>6.652124988123777e-05</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -826,7 +850,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -834,24 +858,18 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
-        <v>0.002490379509654358</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.0002275402508239</v>
-      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="n">
-        <v>6.652124988123777e-05</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -860,17 +878,27 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>0.004505487666197732</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0002049581634437</v>
+      </c>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>0.0049296664257507</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.0002897645947858</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.0002326667682776</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -878,28 +906,20 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>0.004505487666197732</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.0002049581634437</v>
-      </c>
+      <c r="E19" t="n">
+        <v>0.003506935060147757</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="n">
-        <v>0.0049296664257507</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.0002897645947858</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.0002326667682776</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -908,7 +928,7 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>0.003506935060147757</v>
+        <v>0.001896875657961018</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -920,74 +940,92 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>2040</v>
       </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
+      <c r="C21" t="n">
+        <v>0.002630326271282433</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.01046139274128403</v>
+      </c>
       <c r="E21" t="n">
-        <v>0.001896875657961018</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>0.007894190227763134</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.007119881162993634</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0002049581634437</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5.100907766404254e-08</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.005298070010158381</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.0002897645947858</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.0002326667682776</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>2050</v>
       </c>
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" t="n">
+        <v>0.0061937342705544</v>
+      </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>0.0033228171641966</v>
+      </c>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>8.645627794124715e-08</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.0004827901376476</v>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>2050</v>
       </c>
-      <c r="C23" t="n">
-        <v>0.0061937342705544</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>0.0001760906361677737</v>
+      </c>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="n">
-        <v>0.0033228171641966</v>
-      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="n">
-        <v>8.645627794124715e-08</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.0004827901376476</v>
-      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -995,7 +1033,7 @@
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
-        <v>0.0001760906361677737</v>
+        <v>0.01105572332153074</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
@@ -1008,28 +1046,30 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>2050</v>
       </c>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="n">
-        <v>0.01105572332153074</v>
-      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>1.215831979124406e-08</v>
+      </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>2.671317737031262e-09</v>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1037,14 +1077,16 @@
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>0.006138088587837133</v>
+      </c>
       <c r="F26" t="n">
-        <v>1.215831979124406e-08</v>
+        <v>4.37872626768356e-05</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>2.671317737031262e-09</v>
+        <v>1.884265144715712e-05</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1052,7 +1094,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1060,24 +1102,28 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="n">
-        <v>0.006138088587837133</v>
-      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>4.37872626768356e-05</v>
-      </c>
-      <c r="G27" t="inlineStr"/>
+        <v>2.62111062998232e-11</v>
+      </c>
+      <c r="G27" t="n">
+        <v>7.547501369011686e-12</v>
+      </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
-        <v>1.884265144715712e-05</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>8.033180951500578e-11</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.984547205170107e-12</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3.91950389969474e-11</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1087,26 +1133,26 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>2.62111062998232e-11</v>
+        <v>0.0005482033453627935</v>
       </c>
       <c r="G28" t="n">
-        <v>7.547501369011686e-12</v>
+        <v>0.0003662242532769</v>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
-        <v>8.033180951500578e-11</v>
+        <v>0.0012746453100138</v>
       </c>
       <c r="J28" t="n">
-        <v>1.984547205170107e-12</v>
+        <v>0.0003726831545964</v>
       </c>
       <c r="K28" t="n">
-        <v>3.91950389969474e-11</v>
+        <v>0.0003159840865489</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1114,28 +1160,20 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="n">
-        <v>0.0005482033453627935</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.0003662242532769</v>
-      </c>
+      <c r="E29" t="n">
+        <v>0.003515573588307472</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="n">
-        <v>0.0012746453100138</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.0003726831545964</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.0003159840865489</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1144,7 +1182,7 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>0.003515573588307472</v>
+        <v>0.004626033624961024</v>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
@@ -1156,23 +1194,39 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>2050</v>
       </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
+      <c r="C31" t="n">
+        <v>0.0061937342705544</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.01123181395769851</v>
+      </c>
       <c r="E31" t="n">
-        <v>0.004626033624961024</v>
-      </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>0.01427969580110563</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.003914819956767126</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0003662242608244014</v>
+      </c>
+      <c r="H31" t="n">
+        <v>8.645627794124715e-08</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.001776280850758104</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.0003726831565809472</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.000315984125743939</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Outputs/PtX_demand_HU.xlsx
+++ b/Outputs/PtX_demand_HU.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -606,7 +606,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Fossil Gases</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -615,17 +615,21 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>0.0019341040459175</v>
+      </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>0.0001575017125446619</v>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -634,27 +638,17 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
-        <v>0.009632717318715784</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.0001257284793922</v>
-      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="n">
-        <v>0.0073935090736912</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.0002385212398292</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.0001771740192985</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -662,20 +656,30 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
-        <v>0.003434581101590596</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>0.009632717318715784</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0001257284793922</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0016672323111387</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0073935090736912</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0002385212398292</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.0001771740192985</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Fossil Liquids</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -683,174 +687,178 @@
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
-        <v>0.0004973832273440516</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>0.09048945529490771</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0008854688110969</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0152376043626586</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.047009585516313</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0014437695664922</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.0012666715547088</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>2030</v>
       </c>
-      <c r="C11" t="n">
-        <v>0.0007290507609989409</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.009020302396610468</v>
-      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.004577636519496858</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.01032823776425107</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.0001257284793922</v>
-      </c>
-      <c r="H11" t="n">
-        <v>6.093470415604716e-10</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.007637292280834321</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.0002385212398292</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.0001771740192985</v>
-      </c>
+        <v>0.003434581101590596</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2040</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.002630326271282433</v>
-      </c>
+        <v>2030</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="n">
-        <v>0.002386852330165</v>
-      </c>
+      <c r="E12" t="n">
+        <v>0.0004973832273440516</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="n">
-        <v>5.100907766404254e-08</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.0003018822379743</v>
-      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2040</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
+        <v>2030</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0007290507609989409</v>
+      </c>
       <c r="D13" t="n">
-        <v>0.000164012091898209</v>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>0.009020302396610468</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.004577636519496858</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.1027517971050763</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0010111972904891</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.01690483728314434</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.05480437950969198</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0016822908063214</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.0014438455740073</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>2040</v>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="n">
-        <v>0.01029738064938582</v>
-      </c>
+      <c r="C14" t="n">
+        <v>0.002630326271282433</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>0.002386852330165</v>
+      </c>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>5.100907766404254e-08</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.0003018822379743</v>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>2040</v>
       </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>0.000164012091898209</v>
+      </c>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>9.158070027155819e-10</v>
-      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>9.655214334369443e-11</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>2040</v>
       </c>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>0.002490379509654358</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.0002275402508239</v>
-      </c>
+      <c r="D16" t="n">
+        <v>0.01029738064938582</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="n">
-        <v>6.652124988123777e-05</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -859,17 +867,21 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>9.158070027155819e-10</v>
+      </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>9.655214334369443e-11</v>
+      </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -877,28 +889,24 @@
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>0.002490379509654358</v>
+      </c>
       <c r="F18" t="n">
-        <v>0.004505487666197732</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.0002049581634437</v>
-      </c>
+        <v>0.0002275402508239</v>
+      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>0.0049296664257507</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.0002897645947858</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.0002326667682776</v>
-      </c>
+        <v>6.652124988123777e-05</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Fossil Gases</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -906,20 +914,22 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="n">
-        <v>0.003506935060147757</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>0.0010817711436372</v>
+      </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>0.000167993784693807</v>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -927,9 +937,7 @@
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
-        <v>0.001896875657961018</v>
-      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
@@ -940,32 +948,26 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>2040</v>
       </c>
-      <c r="C21" t="n">
-        <v>0.002630326271282433</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.01046139274128403</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.007894190227763134</v>
-      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>0.007119881162993634</v>
+        <v>0.004505487666197732</v>
       </c>
       <c r="G21" t="n">
         <v>0.0002049581634437</v>
       </c>
       <c r="H21" t="n">
-        <v>5.100907766404254e-08</v>
+        <v>0.0020296170763985</v>
       </c>
       <c r="I21" t="n">
-        <v>0.005298070010158381</v>
+        <v>0.0049296664257507</v>
       </c>
       <c r="J21" t="n">
         <v>0.0002897645947858</v>
@@ -977,44 +979,48 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Fossil Liquids</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2050</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.0061937342705544</v>
-      </c>
+        <v>2040</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>0.0033228171641966</v>
-      </c>
-      <c r="G22" t="inlineStr"/>
+        <v>0.02606828246035</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0009519282014734</v>
+      </c>
       <c r="H22" t="n">
-        <v>8.645627794124715e-08</v>
+        <v>0.0143662136684698</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0004827901376476</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>0.0212243127001799</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.0012812163233406</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.0011176089218385</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="n">
-        <v>0.0001760906361677737</v>
-      </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>0.003506935060147757</v>
+      </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
@@ -1025,17 +1031,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="n">
-        <v>0.01105572332153074</v>
-      </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>0.001896875657961018</v>
+      </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
@@ -1046,47 +1052,63 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2050</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+        <v>2040</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.002630326271282433</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.01046139274128403</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.007894190227763134</v>
+      </c>
       <c r="F25" t="n">
-        <v>1.215831979124406e-08</v>
-      </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+        <v>0.03426993476698083</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0011568863649171</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.01639588175394596</v>
+      </c>
       <c r="I25" t="n">
-        <v>2.671317737031262e-09</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>0.02669037649503209</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.0015709809181264</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.0013502756901161</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>2050</v>
       </c>
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" t="n">
+        <v>0.0061937342705544</v>
+      </c>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="n">
-        <v>0.006138088587837133</v>
-      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>4.37872626768356e-05</v>
+        <v>0.0033228171641966</v>
       </c>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>8.645627794124715e-08</v>
+      </c>
       <c r="I26" t="n">
-        <v>1.884265144715712e-05</v>
+        <v>0.0004827901376476</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1094,65 +1116,49 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>2050</v>
       </c>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>0.0001760906361677737</v>
+      </c>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="n">
-        <v>2.62111062998232e-11</v>
-      </c>
-      <c r="G27" t="n">
-        <v>7.547501369011686e-12</v>
-      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="n">
-        <v>8.033180951500578e-11</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1.984547205170107e-12</v>
-      </c>
-      <c r="K27" t="n">
-        <v>3.91950389969474e-11</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>2050</v>
       </c>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="n">
+        <v>0.01105572332153074</v>
+      </c>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="n">
-        <v>0.0005482033453627935</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.0003662242532769</v>
-      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="n">
-        <v>0.0012746453100138</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.0003726831545964</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.0003159840865489</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1160,20 +1166,22 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="n">
-        <v>0.003515573588307472</v>
-      </c>
-      <c r="F29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>1.215831979124406e-08</v>
+      </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>2.671317737031262e-09</v>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1182,50 +1190,212 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>0.004626033624961024</v>
-      </c>
-      <c r="F30" t="inlineStr"/>
+        <v>0.006138088587837133</v>
+      </c>
+      <c r="F30" t="n">
+        <v>4.37872626768356e-05</v>
+      </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>1.884265144715712e-05</v>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Fossil Gases</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>2050</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>8.686379908590892e-05</v>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>6.132142374082466e-05</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Synthetic Liquids</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>2.62111062998232e-11</v>
+      </c>
+      <c r="G32" t="n">
+        <v>7.547501369011686e-12</v>
+      </c>
+      <c r="H32" t="n">
+        <v>7.819563098138778e-11</v>
+      </c>
+      <c r="I32" t="n">
+        <v>8.033180951500578e-11</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.984547205170107e-12</v>
+      </c>
+      <c r="K32" t="n">
+        <v>3.91950389969474e-11</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Biogenic Liquids</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>0.0005482033453627935</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0003662242532769</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.0026583610834959</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.0012746453100138</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.0003726831545964</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.0003159840865489</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Fossil Liquids</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>0.0017290128264531</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0008585989232330001</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.0130283063285152</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.0037591839085436</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.0011028081002801</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.0009172879516494</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Biomass [Solid]</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>0.003515573588307472</v>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Renewable Energy Carrier</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>0.004626033624961024</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Overall Demand</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C37" t="n">
         <v>0.0061937342705544</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D37" t="n">
         <v>0.01123181395769851</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E37" t="n">
         <v>0.01427969580110563</v>
       </c>
-      <c r="F31" t="n">
-        <v>0.003914819956767126</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.0003662242608244014</v>
-      </c>
-      <c r="H31" t="n">
-        <v>8.645627794124715e-08</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.001776280850758104</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.0003726831565809472</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.000315984125743939</v>
+      <c r="F37" t="n">
+        <v>0.005730696582306135</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.001224823184057402</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.01568675394648467</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.005596786183042528</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.001475491256861047</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.001233272077393339</v>
       </c>
     </row>
   </sheetData>
